--- a/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
+++ b/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>UT(0-1-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-36)</t>
   </si>
 </sst>
 </file>
@@ -658,17 +661,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,6 +678,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,7 +1211,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1254,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1318,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,7 +1378,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1444,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1507,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1605,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1664,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1729,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1772,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1847,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2033,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2099,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2157,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2223,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2279,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2351,7 +2354,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2397,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2463,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2519,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2997,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,14 +3027,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3044,14 +3047,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3064,16 +3067,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3099,18 +3102,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3157,7 +3160,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.277000000000001</v>
+        <v>62.201999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4326,11 +4329,15 @@
       <c r="A67" s="40">
         <v>44682</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C67" s="13">
         <v>1.25</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>7.5000000000000011E-2</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
@@ -5498,17 +5505,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5576,14 +5583,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5596,14 +5603,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5616,16 +5623,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5651,18 +5658,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7932,15 +7939,13 @@
         <v>69.5</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.223</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
+++ b/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>UT(0-4-58)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
   </si>
 </sst>
 </file>
@@ -661,14 +670,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -678,9 +690,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2624,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2992,12 +3001,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,14 +3036,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3047,14 +3056,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3067,16 +3076,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3102,18 +3111,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3160,7 +3169,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.201999999999998</v>
+        <v>61.506</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4417,11 +4426,15 @@
       <c r="A71" s="40">
         <v>44805</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4457,11 +4470,15 @@
       <c r="A73" s="40">
         <v>44866</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4498,12 +4515,14 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="20"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>0.621</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13" t="str">
@@ -4516,19 +4535,17 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44957</v>
+      <c r="A76" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4537,7 +4554,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4557,7 +4574,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4577,7 +4594,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4597,7 +4614,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4617,7 +4634,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4637,7 +4654,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4657,7 +4674,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4677,7 +4694,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4697,11 +4714,9 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45199</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -4715,25 +4730,31 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="49">
-        <v>45216</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49">
+        <v>45216</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
@@ -5488,34 +5509,50 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5583,14 +5620,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5603,14 +5640,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5623,16 +5660,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5658,18 +5695,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7941,11 +7978,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.5000000000000011E-2</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
+++ b/CASUAL/LA ONT/SARMIENTO, MARIA TERESA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/04,11,13/2024</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/19,25,27,29,30/2024</t>
   </si>
 </sst>
 </file>
@@ -670,17 +682,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,6 +699,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1232,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1275,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1339,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1399,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1465,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1528,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1626,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1685,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1750,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1793,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1868,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2054,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2120,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2178,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2244,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2300,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2375,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2418,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2484,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2540,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2636,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3001,12 +3013,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,14 +3048,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3056,14 +3068,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3076,16 +3088,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3111,18 +3123,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3169,7 +3181,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61.506</v>
+        <v>64.006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3179,7 +3191,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>81</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4757,15 +4769,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45231</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4773,15 +4789,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45232</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4789,7 +4809,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4805,8 +4827,12 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
@@ -4815,14 +4841,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>3</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4831,14 +4863,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>5</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -4847,13 +4885,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H92" s="39"/>
+      <c r="H92" s="39">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>45292</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45351</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4869,7 +4913,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45382</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4885,7 +4931,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45412</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4901,7 +4949,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45443</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4917,7 +4967,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45473</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4933,7 +4985,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45504</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4949,7 +5003,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45535</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4965,7 +5021,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45565</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4981,7 +5039,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45596</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4997,7 +5057,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45626</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5013,7 +5075,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45657</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5029,7 +5093,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45688</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5525,34 +5591,66 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5620,14 +5718,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5640,14 +5738,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5660,16 +5758,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5695,18 +5793,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
